--- a/AC/mark8/ativos.xlsx
+++ b/AC/mark8/ativos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive Copia\python\financas\AC\mark8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0045CC-E631-41B0-AA16-79E16743AF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A552C033-E330-41AD-840E-30C71FEA7740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="96">
   <si>
     <t>inicio</t>
   </si>
@@ -104,18 +104,12 @@
     <t>https://www.binance.com/pt-BR/trade/BNB_BRL?layout=basic&amp;theme=dark&amp;type=spot</t>
   </si>
   <si>
-    <t>1,522</t>
-  </si>
-  <si>
     <t>BTC_BRL</t>
   </si>
   <si>
     <t>https://www.binance.com/pt-BR/trade/BTC_BRL?layout=basic&amp;theme=dark&amp;type=spot</t>
   </si>
   <si>
-    <t>107,895</t>
-  </si>
-  <si>
     <t>BUSD_BRL</t>
   </si>
   <si>
@@ -176,9 +170,6 @@
     <t>https://www.binance.com/pt-BR/trade/ETH_BRL?layout=basic&amp;theme=dark&amp;type=spot</t>
   </si>
   <si>
-    <t>8,042.86</t>
-  </si>
-  <si>
     <t>FIS_BRL</t>
   </si>
   <si>
@@ -323,10 +314,10 @@
     <t>2.456</t>
   </si>
   <si>
-    <t>BRL</t>
-  </si>
-  <si>
-    <t>CHZi</t>
+    <t>brl_i</t>
+  </si>
+  <si>
+    <t>chz_i</t>
   </si>
 </sst>
 </file>
@@ -406,7 +397,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -720,7 +711,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +721,7 @@
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,13 +738,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -772,12 +763,12 @@
       <c r="F2" s="3">
         <v>500</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <f>F2/E2</f>
         <v>241.31274131274131</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -801,7 +792,7 @@
         <v>20.374898125509372</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -825,7 +816,7 @@
         <v>7.4041166888790162</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -849,7 +840,7 @@
         <v>5.5126791620727671</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -874,7 +865,7 @@
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -887,584 +878,584 @@
       <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="3">
+        <v>1522</v>
+      </c>
+      <c r="F7" s="3">
+        <v>500</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.32851511169513797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="3">
-        <v>500</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" si="0"/>
-        <v>0.32851511169513797</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3">
+        <v>107895</v>
+      </c>
+      <c r="F8" s="3">
+        <v>500</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>4.6341350386950274E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="3">
-        <v>500</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="0"/>
-        <v>4.6341350386950274E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="F9" s="3">
+        <v>500</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>93.896713615023472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="3">
-        <v>500</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="0"/>
-        <v>93.896713615023472</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="F10" s="3">
+        <v>500</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>299.22202274087374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="3">
-        <v>500</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="0"/>
-        <v>299.22202274087374</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="F11" s="3">
+        <v>500</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>491.15913555992142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="3">
-        <v>500</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="0"/>
-        <v>491.15913555992142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="F12" s="3">
+        <v>500</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>1221.597849987784</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="3">
-        <v>500</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="0"/>
-        <v>1221.597849987784</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="F13" s="3">
+        <v>500</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>14.832393948383269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="3">
-        <v>500</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="0"/>
-        <v>14.832393948383269</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>500</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>214.77663230240552</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="3">
-        <v>500</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" si="0"/>
-        <v>214.77663230240552</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="E15" s="3">
+        <v>8042.86</v>
+      </c>
+      <c r="F15" s="3">
+        <v>500</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>6.2166940615651652E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="3">
-        <v>500</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="0"/>
-        <v>6.2166940615651652E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="F16" s="3">
+        <v>500</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>250.75225677031094</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="3">
-        <v>500</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="0"/>
-        <v>250.75225677031094</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="F17" s="3">
+        <v>500</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
+        <v>433.65134431916738</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="3">
-        <v>500</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="0"/>
-        <v>433.65134431916738</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="F18" s="3">
+        <v>500</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="0"/>
+        <v>44.483985765124551</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="3">
-        <v>500</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="0"/>
-        <v>44.483985765124551</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="F19" s="3">
+        <v>500</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>2747.2527472527472</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="3">
-        <v>500</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="0"/>
-        <v>2747.2527472527472</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="F20" s="3">
+        <v>500</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>188.18216033120061</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="3">
-        <v>500</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="0"/>
-        <v>188.18216033120061</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="F21" s="3">
+        <v>500</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="0"/>
+        <v>13.598041881968996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="3">
-        <v>500</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="0"/>
-        <v>13.598041881968996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="F22" s="3">
+        <v>500</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7199862401100792</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="3">
-        <v>500</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" si="0"/>
-        <v>1.7199862401100792</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="F23" s="3">
+        <v>500</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="0"/>
+        <v>149.70059880239521</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="3">
-        <v>500</v>
-      </c>
-      <c r="G23" s="3">
-        <f t="shared" si="0"/>
-        <v>149.70059880239521</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="F24" s="3">
+        <v>500</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="0"/>
+        <v>104.34056761268782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="C25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="3">
-        <v>500</v>
-      </c>
-      <c r="G24" s="3">
-        <f t="shared" si="0"/>
-        <v>104.34056761268782</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="F25" s="3">
+        <v>500</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>121.654501216545</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="3">
-        <v>500</v>
-      </c>
-      <c r="G25" s="3">
-        <f t="shared" si="0"/>
-        <v>121.654501216545</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="F26" s="3">
+        <v>500</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="0"/>
+        <v>7.8333072223092595</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="3">
-        <v>500</v>
-      </c>
-      <c r="G26" s="3">
-        <f t="shared" si="0"/>
-        <v>7.8333072223092595</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="F27" s="3">
+        <v>500</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="0"/>
+        <v>8844861.1356801689</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="C28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="3">
-        <v>500</v>
-      </c>
-      <c r="G27" s="3">
-        <f t="shared" si="0"/>
-        <v>8844861.1356801689</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="F28" s="3">
+        <v>500</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="0"/>
+        <v>3.0693677102516879</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="3">
-        <v>500</v>
-      </c>
-      <c r="G28" s="3">
-        <f t="shared" si="0"/>
-        <v>3.0693677102516879</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="F29" s="3">
+        <v>500</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="0"/>
+        <v>93.861460484325136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="C30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="3">
-        <v>500</v>
-      </c>
-      <c r="G29" s="3">
-        <f t="shared" si="0"/>
-        <v>93.861460484325136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="F30" s="3">
+        <v>500</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="0"/>
+        <v>917431.19266055047</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="C31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="F30" s="3">
-        <v>500</v>
-      </c>
-      <c r="G30" s="3">
-        <f t="shared" si="0"/>
-        <v>917431.19266055047</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="F31" s="3">
         <v>500</v>
